--- a/storage/app/operationalPlan/36/2022/Оперативный план.xlsx
+++ b/storage/app/operationalPlan/36/2022/Оперативный план.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4F12E9-EDC5-CE42-ABF7-99F68C4E9362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,22 +415,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -473,7 +474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -517,7 +518,7 @@
         <v>11666947</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -561,7 +562,7 @@
         <v>1848585</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -605,7 +606,7 @@
         <v>133928553</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -649,7 +650,7 @@
         <v>15092000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -693,7 +694,7 @@
         <v>413053410</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>

--- a/storage/app/operationalPlan/36/2022/Оперативный план.xlsx
+++ b/storage/app/operationalPlan/36/2022/Оперативный план.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4F12E9-EDC5-CE42-ABF7-99F68C4E9362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839EBA76-2689-1E49-8244-96F5E81CD75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
